--- a/09-septiembre/6-portal-cliente/fenix/FENIX.xlsx
+++ b/09-septiembre/6-portal-cliente/fenix/FENIX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\fenix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\fenix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B87FD88-8885-4848-82F2-1D582B7C93DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D0275-E4BF-45BD-9695-595ACCFE1480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>REM 8</t>
   </si>
   <si>
-    <t>AGOSTO 2025</t>
+    <t>SEPTIEMBRE 2025</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15">
-        <v>1748066.7</v>
+        <v>1828499.8</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -594,14 +594,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="5">
-        <v>1708066.7</v>
+        <v>1788499.8</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="5">
         <f>+B7+C7</f>
-        <v>1708066.7</v>
+        <v>1788499.8</v>
       </c>
       <c r="E7" s="5">
         <v>63611.38</v>
@@ -615,11 +615,11 @@
       </c>
       <c r="H7" s="5">
         <f>+D7+G7</f>
-        <v>1771678.0799999998</v>
+        <v>1852111.18</v>
       </c>
       <c r="I7" s="5">
         <f>+H7</f>
-        <v>1771678.0799999998</v>
+        <v>1852111.18</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -651,7 +651,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="9">
         <f t="shared" ref="B10:I10" si="0">SUM(B7:B9)</f>
-        <v>1708066.7</v>
+        <v>1788499.8</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" ref="C10:H10" si="1">SUM(C7:C9)</f>
@@ -659,7 +659,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>1708066.7</v>
+        <v>1788499.8</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="1"/>
@@ -675,11 +675,11 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>1771678.0799999998</v>
+        <v>1852111.18</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="0"/>
-        <v>1771678.0799999998</v>
+        <v>1852111.18</v>
       </c>
       <c r="J10" s="9"/>
     </row>
